--- a/data/entities/entity_TODAY_EGY_HW_hospitalised_people.xlsx
+++ b/data/entities/entity_TODAY_EGY_HW_hospitalised_people.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkalomalos\Projects\unu\climada-unu\data\entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C17135-5936-4E37-9099-B496F7391851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D5E56F-9E8C-4C54-B6D9-1BF9012E61E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -1415,52 +1415,52 @@
     <t>value_display_unit_fact</t>
   </si>
   <si>
-    <t>Green Roofs</t>
-  </si>
-  <si>
     <t>0 0.42 0.36</t>
-  </si>
-  <si>
-    <t>Trees planting</t>
   </si>
   <si>
     <t>0.01 0.67 0.51</t>
   </si>
   <si>
-    <t>Early warning system</t>
-  </si>
-  <si>
     <t>0.93 0.33 0.34</t>
-  </si>
-  <si>
-    <t>Training on Adaptation agricultural practices</t>
   </si>
   <si>
     <t>1 0.5 0.4</t>
   </si>
   <si>
-    <t>Water-saving cultivation and production practices</t>
-  </si>
-  <si>
-    <t>0.09 0.44 0.61</t>
-  </si>
-  <si>
-    <t>Research and monitoring</t>
-  </si>
-  <si>
     <t>1 0.75 0.6</t>
   </si>
   <si>
-    <t>Climate smart agriculture</t>
+    <t>1 0.89 0.84</t>
   </si>
   <si>
-    <t>0.38 0.75 0.6</t>
+    <t>GR</t>
   </si>
   <si>
-    <t>Green building codes</t>
+    <t>TP</t>
   </si>
   <si>
-    <t>1 0.89 0.84</t>
+    <t>EWS</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>WSP</t>
+  </si>
+  <si>
+    <t>0.98 0.63 0.56</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>0.62 0.82 0.92</t>
+  </si>
+  <si>
+    <t>GBC</t>
   </si>
 </sst>
 </file>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1213" workbookViewId="0">
-      <selection activeCell="J1222" sqref="J1222"/>
+    <sheetView topLeftCell="A1213" workbookViewId="0">
+      <selection activeCell="G1227" sqref="G1227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="12.75"/>
@@ -39215,7 +39215,7 @@
   <dimension ref="A1:H372"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+      <selection activeCell="G344" sqref="G344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="14.25"/>
@@ -49287,8 +49287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -49371,10 +49371,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>105</v>
       </c>
       <c r="C2" s="61">
         <v>20000000</v>
@@ -49427,10 +49427,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="61">
         <v>31120331.950207472</v>
@@ -49483,10 +49483,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="61">
         <v>22370744.852031101</v>
@@ -49539,10 +49539,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C5" s="61">
         <v>35952982.797907144</v>
@@ -49595,10 +49595,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6" s="61">
         <v>34035490.382018767</v>
@@ -49651,10 +49651,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C7" s="61">
         <v>22398708.28309615</v>
@@ -49707,10 +49707,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="61">
         <v>113132052.53741448</v>
@@ -49763,10 +49763,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C9" s="62">
         <v>196542972.62855905</v>

--- a/data/entities/entity_TODAY_EGY_HW_hospitalised_people.xlsx
+++ b/data/entities/entity_TODAY_EGY_HW_hospitalised_people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkalomalos\Projects\unu\climada-unu\data\entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D5E56F-9E8C-4C54-B6D9-1BF9012E61E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD56D385-63A8-401D-A1D0-01CBABD6AC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39214,8 +39214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H372"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G344" sqref="G344"/>
+    <sheetView topLeftCell="A304" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="14.25"/>
@@ -49287,8 +49287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
